--- a/OmegaPlayWS_details.xlsx
+++ b/OmegaPlayWS_details.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhoww\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\testing\Latest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="121">
   <si>
     <t>Fetch_BankDetail.php</t>
   </si>
@@ -367,24 +367,9 @@
     <t>Fetch_PaymentDetails</t>
   </si>
   <si>
-    <t>mobile,serviceType</t>
-  </si>
-  <si>
-    <t>{"Status":"1","Message":"Success","ResultDetails":[{"Id":2,"MobileNo":"9665801306","ServiceType":"Withdraw","ServiceAmt":"300","PayementStatus":"completed","PayementId":"1111102182","CreatedAt":"2017-03-09 08:20:27","UpdatedAt":"2017-03-09 08:24:00","SessionId":"4077"}]}</t>
-  </si>
-  <si>
-    <t>{"Status":"1","Message":"Success","ResultDetails":[{"Id":1,"MobileNo":"9665801306","ServiceType":"Anonymous","ServiceAmt":"200","PayementStatus":"started","PayementId":"","CreatedAt":"2017-03-13 05:53:32","UpdatedAt":"","SessionId":"1048"},{"Id":2,"MobileNo":"9665801306","ServiceType":"Withdraw","ServiceAmt":"300","PayementStatus":"completed","PayementId":"1111102182","CreatedAt":"2017-03-09 08:20:27","UpdatedAt":"2017-03-09 08:24:00","SessionId":"4077"},{"Id":3,"MobileNo":"7875198963","ServiceType":"Anonymous","ServiceAmt":"800","PayementStatus":"completed","PayementId":"1111108275","CreatedAt":"2017-03-13 06:21:55","UpdatedAt":"2017-03-13 06:23:26","SessionId":"1873"},{"Id":4,"MobileNo":"9665801306","ServiceType":"Anonymous","ServiceAmt":"300","PayementStatus":"started","PayementId":"","CreatedAt":"2017-03-10 07:36:30","UpdatedAt":"","SessionId":"5703"},{"Id":5,"MobileNo":"9665801306","ServiceType":"Anonymous","ServiceAmt":"100","PayementStatus":"started","PayementId":"","CreatedAt":"2017-03-09 10:28:26","UpdatedAt":"","SessionId":"9774"},{"Id":6,"MobileNo":"9665801306","ServiceType":"Anonymous","ServiceAmt":"1200","PayementStatus":"started","PayementId":"","CreatedAt":"2017-03-09 09:17:39","UpdatedAt":"","SessionId":"9860"},{"Id":7,"MobileNo":"9665801306","ServiceType":"Anonymous","ServiceAmt":"400","PayementStatus":"started","PayementId":"","CreatedAt":"2017-03-13 08:47:42","UpdatedAt":"","SessionId":"7004"},{"Id":8,"MobileNo":"9665801306","ServiceType":"Update","ServiceAmt":"200","PayementStatus":"started","PayementId":"","CreatedAt":"2017-03-13 10:24:17","UpdatedAt":"","SessionId":"4864"},{"Id":9,"MobileNo":"9665801306","ServiceType":"Membership","ServiceAmt":"200","PayementStatus":"started","PayementId":"","CreatedAt":"2017-03-13 10:29:46","UpdatedAt":"","SessionId":"2767"},{"Id":10,"MobileNo":"9665801306","ServiceType":"Membership","ServiceAmt":"200","PayementStatus":"completed","PayementId":"1111108515","CreatedAt":"2017-03-13 10:34:04","UpdatedAt":"2017-03-13 10:35:36","SessionId":"7432"},{"Id":11,"MobileNo":"7875198963","ServiceType":"Anonymous","ServiceAmt":"20","PayementStatus":"started","PayementId":"","CreatedAt":"2017-03-14 04:05:51","UpdatedAt":"","SessionId":"3740"},{"Id":12,"MobileNo":"9665801306","ServiceType":"Anonymous","ServiceAmt":"600","PayementStatus":"started","PayementId":"","CreatedAt":"2017-03-15 05:06:19","UpdatedAt":"","SessionId":"7703"},{"Id":13,"MobileNo":"9665801306","ServiceType":"Anonymous","ServiceAmt":"600","PayementStatus":"started","PayementId":"","CreatedAt":"2017-03-15 05:06:21","UpdatedAt":"","SessionId":"1111"},{"Id":14,"MobileNo":"8087334305","ServiceType":"Anonymous","ServiceAmt":"320","PayementStatus":"started","PayementId":"","CreatedAt":"2017-03-15 05:28:48","UpdatedAt":"","SessionId":"2051"},{"Id":15,"MobileNo":"8087334305","ServiceType":"Anonymous","ServiceAmt":"1000","PayementStatus":"started","PayementId":"","CreatedAt":"2017-03-15 08:46:44","UpdatedAt":"","SessionId":"2689"},{"Id":16,"MobileNo":"8087334305","ServiceType":"Anonymous","ServiceAmt":"500","PayementStatus":"started","PayementId":"","CreatedAt":"2017-03-15 11:01:24","UpdatedAt":"","SessionId":"3733"},{"Id":17,"MobileNo":"9665801306","ServiceType":"Anonymous","ServiceAmt":"700","PayementStatus":"completed","PayementId":"1111111750","CreatedAt":"2017-03-15 12:22:56","UpdatedAt":"2017-03-15 12:24:12","SessionId":"9225"},{"Id":18,"MobileNo":"9420427823","ServiceType":"Update","ServiceAmt":"300","PayementStatus":"started","PayementId":"","CreatedAt":"2017-03-16 09:06:30","UpdatedAt":"","SessionId":"7876"},{"Id":19,"MobileNo":"9420427823","ServiceType":"Update","ServiceAmt":"300","PayementStatus":"completed","PayementId":"1111114997","CreatedAt":"2017-03-17 10:21:28","UpdatedAt":"2017-03-17 10:22:53","SessionId":"9799"},{"Id":20,"MobileNo":"9420427823","ServiceType":"Anonymous","ServiceAmt":"300","PayementStatus":"started","PayementId":"","CreatedAt":"2017-03-17 10:23:31","UpdatedAt":"","SessionId":"4583"},{"Id":21,"MobileNo":"9420427823","ServiceType":"Anonymous","ServiceAmt":"700","PayementStatus":"started","PayementId":"","CreatedAt":"2017-03-18 11:54:50","UpdatedAt":"","SessionId":"6948"},{"Id":22,"MobileNo":"9420427823","ServiceType":"Update","ServiceAmt":"300","PayementStatus":"started","PayementId":"","CreatedAt":"2017-03-18 11:56:04","UpdatedAt":"","SessionId":"6236"},{"Id":23,"MobileNo":"9420427823","ServiceType":"Update","ServiceAmt":"300","PayementStatus":"started","PayementId":"","CreatedAt":"2017-03-20 04:24:29","UpdatedAt":"","SessionId":"1727"},{"Id":24,"MobileNo":"9420427823","ServiceType":"Anonymous","ServiceAmt":"400","PayementStatus":"started","PayementId":"","CreatedAt":"2017-03-20 13:06:42","UpdatedAt":"","SessionId":"3345"}]}</t>
-  </si>
-  <si>
-    <t>{"Status":"1","Message":"Success","ResultDetails":[{"Id":1,"MobileNo":"8087334305","CreatedAt":"10-2-2017","TypeOfService":"Membership","ValidDate":"2017-05-21","PaymentId":"1234","PaymentAmount":"123","UpdateAt":"","Status":"True"},{"Id":2,"MobileNo":"7875198963","CreatedAt":"10-2-2017","TypeOfService":"Membership","ValidDate":"2017-3-15","PaymentId":"12345678","PaymentAmount":"1000","UpdateAt":"","Status":"True"},{"Id":3,"MobileNo":"9665801306","CreatedAt":"10-3-2016","TypeOfService":"Membership","ValidDate":"2017-3-15","PaymentId":"12345678","PaymentAmount":"1000","UpdateAt":"10-3-2017","Status":"True"}]}</t>
-  </si>
-  <si>
     <t>Fetch_MemberShipDetails</t>
   </si>
   <si>
-    <t>{"Status":"1","Message":"Success","ResultDetails":[{"Id":3,"MobileNo":"9665801306","CreatedAt":"10-3-2016","TypeOfService":"Membership","ValidDate":"2017-3-15","PaymentId":"12345678","PaymentAmount":"1000","UpdateAt":"10-3-2017","Status":"True"}]}</t>
-  </si>
-  <si>
     <t>http://demowebapi.omega-solutions.in/api/userdetails?mobile=9850431252</t>
   </si>
   <si>
@@ -397,12 +382,6 @@
     <t>http://demowebapi.omega-solutions.in/api/userrefdetails</t>
   </si>
   <si>
-    <t>http://demowebapi.omega-solutions.in/api/Bankdetails?mobile=9665801306</t>
-  </si>
-  <si>
-    <t>http://demowebapi.omega-solutions.in/api/Bankdetails</t>
-  </si>
-  <si>
     <t>http://demowebapi.omega-solutions.in/api/UpgradeDetails?mobile=9665801306</t>
   </si>
   <si>
@@ -430,18 +409,6 @@
     <t>http://demowebapi.omega-solutions.in/api/ServicesDetails</t>
   </si>
   <si>
-    <t>http://demowebapi.omega-solutions.in/api/PaymentDetails?mobile=9665801306&amp;serviceType=Withdraw</t>
-  </si>
-  <si>
-    <t>http://demowebapi.omega-solutions.in/api/PaymentDetails</t>
-  </si>
-  <si>
-    <t>http://demowebapi.omega-solutions.in/api/MembershipDetails?MOBILE=9665801306&amp;serviceType=Membership</t>
-  </si>
-  <si>
-    <t>http://demowebapi.omega-solutions.in/api/MembershipDetails</t>
-  </si>
-  <si>
     <t>http://demowebapi.omega-solutions.in/api/otpdetails</t>
   </si>
   <si>
@@ -451,19 +418,67 @@
     <t>{"Status":"1","Message":"Success","RequestDetails":[{"Id":1,"MobileNo":"9665801306","OtpCode":"8203","SessionId":"4454","Status":"T","CreatedAt":"2017-03-16 13:40:42","UpdatedAt":"2017-03-16 13:40:42","Why":"Login"},{"Id":2,"MobileNo":"8087334305","OtpCode":"6952","SessionId":"1776","Status":"T","CreatedAt":"2017-03-16 13:40:42","UpdatedAt":"2017-03-16 13:40:42","Why":"Login"},{"Id":3,"MobileNo":"8446052153","OtpCode":"8265","SessionId":"8904","Status":"F","CreatedAt":"2017-03-09 06:24:42","UpdatedAt":"","Why":"BankWithdraw"},{"Id":4,"MobileNo":"7875198963","OtpCode":"4965","SessionId":"8871","Status":"T","CreatedAt":"2017-03-07 10:45:42","UpdatedAt":"2017-03-14 13:48:13","Why":"Login"},{"Id":5,"MobileNo":"9665801306","OtpCode":"8203","SessionId":"4454","Status":"T","CreatedAt":"2017-03-09 06:31:28","UpdatedAt":"2017-03-16 13:40:42","Why":"Login"},{"Id":6,"MobileNo":"7875198963","OtpCode":"4965","SessionId":"8871","Status":"T","CreatedAt":"2017-03-13 06:16:50","UpdatedAt":"2017-03-14 13:48:13","Why":"Login"},{"Id":7,"MobileNo":"8087334305","OtpCode":"6952","SessionId":"1776","Status":"T","CreatedAt":"2017-03-15 05:40:40","UpdatedAt":"2017-03-15 05:41:08","Why":"Login"},{"Id":8,"MobileNo":"0123456789","OtpCode":"2881","SessionId":"4157","Status":"F","CreatedAt":"2017-03-15 05:47:59","UpdatedAt":"2017-03-15 05:48:12","Why":"Login"},{"Id":9,"MobileNo":"9420427823","OtpCode":"2222","SessionId":"2372","Status":"T","CreatedAt":"2017-03-16 09:05:40","UpdatedAt":"2017-03-20 04:09:28","Why":"Login"},{"Id":10,"MobileNo":"9665801306","OtpCode":"8203","SessionId":"4454","Status":"T","CreatedAt":"2017-03-16 13:40:25","UpdatedAt":"2017-03-16 13:40:42","Why":"Login"}]}</t>
   </si>
   <si>
-    <t>http://demowebapi.omega-solutions.in/api/otpdetails?mobile=8087334305</t>
-  </si>
-  <si>
     <t>{"Status":"1","Message":"Success","RequestDetails":[{"Id":2,"MobileNo":"8087334305","OtpCode":"6952","SessionId":"1776","Status":"T","CreatedAt":"2017-03-16 13:40:42","UpdatedAt":"2017-03-16 13:40:42","Why":"Login"},{"Id":7,"MobileNo":"8087334305","OtpCode":"6952","SessionId":"1776","Status":"T","CreatedAt":"2017-03-15 05:40:40","UpdatedAt":"2017-03-15 05:41:08","Why":"Login"}]}</t>
   </si>
   <si>
-    <t>Insert_UserDetails</t>
-  </si>
-  <si>
-    <t>{"UserFullName":"Huzefa","UserLastName":"Motiwalla","UserMobileNo":"9850431252","UserEmailId":"huzefam@gmail.com","UserPanNo":"","UserAdhaarNo":"","UserPassword":"5115","UserReference":"8169152550","UserAddress":"Arora Towers\\n","UserCity":"Pune","UserPin":"411001","UserGender":"Male"}</t>
-  </si>
-  <si>
-    <t>{"Status":"1","Message":"Success","RequestDetails":null}</t>
+    <t>http://localhost:53130/BankDetails/FetchBankDetails</t>
+  </si>
+  <si>
+    <t>{mobileNo:'9665801306'}</t>
+  </si>
+  <si>
+    <t>http://localhost:53130/BankDetails/FetchBankDetailsBymobile</t>
+  </si>
+  <si>
+    <t>{"Status":"1","Message":"Success","ResultDetails":[{"Id":1,"MobileNo":"8087334305","CreatedAt":"10-2-2017","TypeOfService":"Membership","ValidDate":"2017-05-21","PaymentId":"1234","PaymentAmount":"123","UpdateAt":"","MemberShipStatus":"True"},{"Id":2,"MobileNo":"7875198963","CreatedAt":"10-2-2017","TypeOfService":"Membership","ValidDate":"2017-3-15","PaymentId":"12345678","PaymentAmount":"1000","UpdateAt":"","MemberShipStatus":"True"},{"Id":3,"MobileNo":"9665801306","CreatedAt":"10-3-2016","TypeOfService":"Membership","ValidDate":"2017-3-15","PaymentId":"12345678","PaymentAmount":"1000","UpdateAt":"10-3-2017","MemberShipStatus":"True"}]}</t>
+  </si>
+  <si>
+    <t>http://localhost:53130/MembershipDetails/FetchMemberShipDetails</t>
+  </si>
+  <si>
+    <t>{"MobileNo":'9665801306',"ServiceType":'membership'}</t>
+  </si>
+  <si>
+    <t>http://localhost:53130/MembershipDetails/FetchMemberShipDetailsbyMobileServiceType</t>
+  </si>
+  <si>
+    <t>{"Status":"1","Message":"Success","ResultDetails":[{"Id":3,"MobileNo":"9665801306","CreatedAt":"10-3-2016","TypeOfService":"Membership","ValidDate":"2017-3-15","PaymentId":"12345678","PaymentAmount":"1000","UpdateAt":"10-3-2017","MemberShipStatus":"True"}]}</t>
+  </si>
+  <si>
+    <t>http://localhost:53130/BankDetails/InsertBankDetails</t>
+  </si>
+  <si>
+    <t>InsertBankDetails</t>
+  </si>
+  <si>
+    <t>{"UserBankName":"Hdfcc","UserAccHolderName":"Mayur Mali","UserAccNumber":"234153316","UserAccType":"saving","UserIFSCCode":"fahccub","UserMobileNo":"9665801306","UserPanNo":"ag1245"}</t>
+  </si>
+  <si>
+    <t>{"Status":"1","Message":"Success","ResultDetails":null}</t>
+  </si>
+  <si>
+    <t>http://localhost:53130/PaymentDetails/FetchPaymentDetails</t>
+  </si>
+  <si>
+    <t>{"Status":"1","Message":"Success","ResultDetails":[{"Id":1,"MobileNo":"9665801306","ServiceType":"Anonymous","ServiceAmt":"200","PaymentStatus":"started","PaymentId":"","CreatedAt":"2017-03-13 05:53:32","UpdatedAt":"","SessionId":"1048"},{"Id":2,"MobileNo":"9665801306","ServiceType":"Withdraw","ServiceAmt":"300","PaymentStatus":"completed","PaymentId":"1111102182","CreatedAt":"2017-03-09 08:20:27","UpdatedAt":"2017-03-09 08:24:00","SessionId":"4077"},{"Id":3,"MobileNo":"7875198963","ServiceType":"Anonymous","ServiceAmt":"800","PaymentStatus":"completed","PaymentId":"1111108275","CreatedAt":"2017-03-13 06:21:55","UpdatedAt":"2017-03-13 06:23:26","SessionId":"1873"},{"Id":4,"MobileNo":"9665801306","ServiceType":"Anonymous","ServiceAmt":"300","PaymentStatus":"started","PaymentId":"","CreatedAt":"2017-03-10 07:36:30","UpdatedAt":"","SessionId":"5703"},{"Id":5,"MobileNo":"9665801306","ServiceType":"Anonymous","ServiceAmt":"100","PaymentStatus":"started","PaymentId":"","CreatedAt":"2017-03-09 10:28:26","UpdatedAt":"","SessionId":"9774"},{"Id":6,"MobileNo":"9665801306","ServiceType":"Anonymous","ServiceAmt":"1200","PaymentStatus":"started","PaymentId":"","CreatedAt":"2017-03-09 09:17:39","UpdatedAt":"","SessionId":"9860"},{"Id":7,"MobileNo":"9665801306","ServiceType":"Anonymous","ServiceAmt":"400","PaymentStatus":"started","PaymentId":"","CreatedAt":"2017-03-13 08:47:42","UpdatedAt":"","SessionId":"7004"},{"Id":8,"MobileNo":"9665801306","ServiceType":"Update","ServiceAmt":"200","PaymentStatus":"started","PaymentId":"","CreatedAt":"2017-03-13 10:24:17","UpdatedAt":"","SessionId":"4864"},{"Id":9,"MobileNo":"9665801306","ServiceType":"Membership","ServiceAmt":"200","PaymentStatus":"started","PaymentId":"","CreatedAt":"2017-03-13 10:29:46","UpdatedAt":"","SessionId":"2767"},{"Id":10,"MobileNo":"9665801306","ServiceType":"Membership","ServiceAmt":"200","PaymentStatus":"completed","PaymentId":"1111108515","CreatedAt":"2017-03-13 10:34:04","UpdatedAt":"2017-03-13 10:35:36","SessionId":"7432"},{"Id":11,"MobileNo":"7875198963","ServiceType":"Anonymous","ServiceAmt":"20","PaymentStatus":"started","PaymentId":"","CreatedAt":"2017-03-14 04:05:51","UpdatedAt":"","SessionId":"3740"},{"Id":12,"MobileNo":"9665801306","ServiceType":"Anonymous","ServiceAmt":"600","PaymentStatus":"started","PaymentId":"","CreatedAt":"2017-03-15 05:06:19","UpdatedAt":"","SessionId":"7703"},{"Id":13,"MobileNo":"9665801306","ServiceType":"Anonymous","ServiceAmt":"600","PaymentStatus":"started","PaymentId":"","CreatedAt":"2017-03-15 05:06:21","UpdatedAt":"","SessionId":"1111"},{"Id":14,"MobileNo":"8087334305","ServiceType":"Anonymous","ServiceAmt":"320","PaymentStatus":"started","PaymentId":"","CreatedAt":"2017-03-15 05:28:48","UpdatedAt":"","SessionId":"2051"},{"Id":15,"MobileNo":"8087334305","ServiceType":"Anonymous","ServiceAmt":"1000","PaymentStatus":"started","PaymentId":"","CreatedAt":"2017-03-15 08:46:44","UpdatedAt":"","SessionId":"2689"},{"Id":16,"MobileNo":"8087334305","ServiceType":"Anonymous","ServiceAmt":"500","PaymentStatus":"started","PaymentId":"","CreatedAt":"2017-03-15 11:01:24","UpdatedAt":"","SessionId":"3733"},{"Id":17,"MobileNo":"9665801306","ServiceType":"Anonymous","ServiceAmt":"700","PaymentStatus":"completed","PaymentId":"1111111750","CreatedAt":"2017-03-15 12:22:56","UpdatedAt":"2017-03-15 12:24:12","SessionId":"9225"},{"Id":18,"MobileNo":"9420427823","ServiceType":"Update","ServiceAmt":"300","PaymentStatus":"started","PaymentId":"","CreatedAt":"2017-03-16 09:06:30","UpdatedAt":"","SessionId":"7876"},{"Id":19,"MobileNo":"9420427823","ServiceType":"Update","ServiceAmt":"300","PaymentStatus":"completed","PaymentId":"1111114997","CreatedAt":"2017-03-17 10:21:28","UpdatedAt":"2017-03-17 10:22:53","SessionId":"9799"},{"Id":20,"MobileNo":"9420427823","ServiceType":"Anonymous","ServiceAmt":"300","PaymentStatus":"started","PaymentId":"","CreatedAt":"2017-03-17 10:23:31","UpdatedAt":"","SessionId":"4583"},{"Id":21,"MobileNo":"9420427823","ServiceType":"Anonymous","ServiceAmt":"700","PaymentStatus":"started","PaymentId":"","CreatedAt":"2017-03-18 11:54:50","UpdatedAt":"","SessionId":"6948"},{"Id":22,"MobileNo":"9420427823","ServiceType":"Update","ServiceAmt":"300","PaymentStatus":"started","PaymentId":"","CreatedAt":"2017-03-18 11:56:04","UpdatedAt":"","SessionId":"6236"},{"Id":23,"MobileNo":"9420427823","ServiceType":"Update","ServiceAmt":"300","PaymentStatus":"started","PaymentId":"","CreatedAt":"2017-03-20 04:24:29","UpdatedAt":"","SessionId":"1727"},{"Id":24,"MobileNo":"9420427823","ServiceType":"Anonymous","ServiceAmt":"400","PaymentStatus":"started","PaymentId":"","CreatedAt":"2017-03-20 13:06:42","UpdatedAt":"","SessionId":"3345"}]}</t>
+  </si>
+  <si>
+    <t>{"Status":"1","Message":"Success","ResultDetails":[{"Id":1,"MobileNo":"9665801306","ServiceType":"Anonymous","ServiceAmt":"200","PaymentStatus":"started","PaymentId":"","CreatedAt":"2017-03-13 05:53:32","UpdatedAt":"","SessionId":"1048"},{"Id":4,"MobileNo":"9665801306","ServiceType":"Anonymous","ServiceAmt":"300","PaymentStatus":"started","PaymentId":"","CreatedAt":"2017-03-10 07:36:30","UpdatedAt":"","SessionId":"5703"},{"Id":5,"MobileNo":"9665801306","ServiceType":"Anonymous","ServiceAmt":"100","PaymentStatus":"started","PaymentId":"","CreatedAt":"2017-03-09 10:28:26","UpdatedAt":"","SessionId":"9774"},{"Id":6,"MobileNo":"9665801306","ServiceType":"Anonymous","ServiceAmt":"1200","PaymentStatus":"started","PaymentId":"","CreatedAt":"2017-03-09 09:17:39","UpdatedAt":"","SessionId":"9860"},{"Id":7,"MobileNo":"9665801306","ServiceType":"Anonymous","ServiceAmt":"400","PaymentStatus":"started","PaymentId":"","CreatedAt":"2017-03-13 08:47:42","UpdatedAt":"","SessionId":"7004"},{"Id":12,"MobileNo":"9665801306","ServiceType":"Anonymous","ServiceAmt":"600","PaymentStatus":"started","PaymentId":"","CreatedAt":"2017-03-15 05:06:19","UpdatedAt":"","SessionId":"7703"},{"Id":13,"MobileNo":"9665801306","ServiceType":"Anonymous","ServiceAmt":"600","PaymentStatus":"started","PaymentId":"","CreatedAt":"2017-03-15 05:06:21","UpdatedAt":"","SessionId":"1111"},{"Id":17,"MobileNo":"9665801306","ServiceType":"Anonymous","ServiceAmt":"700","PaymentStatus":"completed","PaymentId":"1111111750","CreatedAt":"2017-03-15 12:22:56","UpdatedAt":"2017-03-15 12:24:12","SessionId":"9225"}]}</t>
+  </si>
+  <si>
+    <t>{"MobileNo":"9665801306","ServiceType":"Anonymous"}</t>
+  </si>
+  <si>
+    <t>http://localhost:53130/PaymentDetails/FetchPaymentDetailsbyMobileServiceType</t>
+  </si>
+  <si>
+    <t>{"MobileNo":"9665801306","ServiceType":"Anonymous","ServiceAmt":"300","PaymentStatus":"started","PaymentId":"","SessionId":"5703"}</t>
+  </si>
+  <si>
+    <t>InsertPaymentDetails</t>
+  </si>
+  <si>
+    <t>http://localhost:53130/PaymentDetails/InsertPaymentDetails</t>
   </si>
 </sst>
 </file>
@@ -583,27 +598,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
@@ -913,19 +931,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.109375" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" customWidth="1"/>
-    <col min="3" max="3" width="95.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5546875" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="95.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -939,7 +957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -953,7 +971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -967,7 +985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -981,7 +999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -995,7 +1013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1009,7 +1027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1023,7 +1041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1037,7 +1055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="3" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1051,7 +1069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="3" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -1065,7 +1083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
@@ -1082,49 +1100,49 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -1135,42 +1153,42 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1185,308 +1203,334 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="97.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="D11" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B12" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="D13" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B14" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="D24" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" t="s">
-        <v>115</v>
-      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1494,21 +1538,17 @@
     <hyperlink ref="A3" r:id="rId2" display="http://localhost:59126/api/userdetails"/>
     <hyperlink ref="A4" r:id="rId3" display="http://localhost:59126/api/userrefdetails?mobile=9665801306"/>
     <hyperlink ref="A5" r:id="rId4" display="http://localhost:59126/api/userrefdetails"/>
-    <hyperlink ref="A7" r:id="rId5" display="http://localhost:59126/api/Bankdetails"/>
-    <hyperlink ref="A8" r:id="rId6" display="http://localhost:59126/api/UpgradeDetails?mobile=9665801306"/>
-    <hyperlink ref="A11" r:id="rId7" display="http://localhost:59126/api/WalletStatementDetails"/>
-    <hyperlink ref="A10" r:id="rId8" display="http://localhost:59126/api/WalletStatementDetails?mobile=9665801306"/>
-    <hyperlink ref="A12" r:id="rId9" display="http://localhost:59126/api/WalletDetails?mobile=9665801306"/>
-    <hyperlink ref="A15" r:id="rId10" display="http://localhost:59126/api/ServicesDetails?serviceType=Update"/>
-    <hyperlink ref="A16" r:id="rId11" display="http://localhost:59126/api/ServicesDetails"/>
-    <hyperlink ref="A17" r:id="rId12" display="http://localhost:59126/api/PaymentDetails?mobile=9665801306&amp;serviceType=Withdraw"/>
-    <hyperlink ref="A20" r:id="rId13"/>
-    <hyperlink ref="A21" r:id="rId14"/>
-    <hyperlink ref="A22" r:id="rId15"/>
-    <hyperlink ref="A23" r:id="rId16"/>
+    <hyperlink ref="A9" r:id="rId5" display="http://localhost:59126/api/UpgradeDetails?mobile=9665801306"/>
+    <hyperlink ref="A12" r:id="rId6" display="http://localhost:59126/api/WalletStatementDetails"/>
+    <hyperlink ref="A11" r:id="rId7" display="http://localhost:59126/api/WalletStatementDetails?mobile=9665801306"/>
+    <hyperlink ref="A13" r:id="rId8" display="http://localhost:59126/api/WalletDetails?mobile=9665801306"/>
+    <hyperlink ref="A16" r:id="rId9" display="http://localhost:59126/api/ServicesDetails?serviceType=Update"/>
+    <hyperlink ref="A17" r:id="rId10" display="http://localhost:59126/api/ServicesDetails"/>
+    <hyperlink ref="A23" r:id="rId11"/>
+    <hyperlink ref="A8" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -1518,7 +1558,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
